--- a/baseline/llm_geminipro/geminipro_analysis/prompt_5_experiment/no_url/0-shot/validation_0_shot_no_url.xlsx
+++ b/baseline/llm_geminipro/geminipro_analysis/prompt_5_experiment/no_url/0-shot/validation_0_shot_no_url.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\llm_geminipro\geminipro_analysis\prompt_5_experiment\no_url\0-shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E997E-6CEA-43F4-90ED-7E8A45ACCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4464D9C9-43E8-4724-B349-18D9A3A16007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,9 +1264,6 @@
     <t>https://idevicefindmy.info/?i=A92bg./aU3V57/?c9g7MxvbbdPwOnI5YCTlxsrz8lvmLs3RcRiIveocZhrv6vQES6C15JtOQhgHCE8SfGUweLuBiyB4msT0nJDcJLRFQ7pmUHCHVwt63TOqRkYMgbjaOjLr2QnCP5LDZ8B2VolH984bOOrKQ3ZJuFhl5UnLLT9wD8PM102LM6ap9c./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/</t>
   </si>
   <si>
-    <t>iCloud</t>
-  </si>
-  <si>
     <t>2363d13b84b28ab73684127ef1c5a1fd1d48c8ce2132b7143bcd3bff044d0775</t>
   </si>
   <si>
@@ -1516,9 +1513,6 @@
     <t>https://www.weibo.com</t>
   </si>
   <si>
-    <t>Sina Weibo</t>
-  </si>
-  <si>
     <t>China Mobile</t>
   </si>
   <si>
@@ -2140,9 +2134,6 @@
     <t>https://www.airslate.com</t>
   </si>
   <si>
-    <t>airSlate</t>
-  </si>
-  <si>
     <t>AirSlate</t>
   </si>
   <si>
@@ -2210,13 +2201,22 @@
   </si>
   <si>
     <t>Payload exceeds limit</t>
+  </si>
+  <si>
+    <t>Weibo</t>
+  </si>
+  <si>
+    <t>Firebase (Google)</t>
+  </si>
+  <si>
+    <t>Airslate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2286,8 +2286,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,6 +2325,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2331,7 +2350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2367,6 +2386,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2587,8 +2618,8 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="M244" sqref="M244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3023,7 +3054,7 @@
       </c>
       <c r="N11" s="4">
         <f>COUNTIFS(K:K, "Yes")</f>
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1">
@@ -3067,7 +3098,7 @@
       </c>
       <c r="N12" s="4">
         <f>COUNTIFS(K:K, "No")</f>
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1">
@@ -3169,11 +3200,11 @@
       <c r="C15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
@@ -3193,7 +3224,7 @@
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1">
@@ -3237,7 +3268,7 @@
       </c>
       <c r="N16" s="3">
         <f>COUNTIFS(E:E, "Yes", F:F, "Yes")</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>64</v>
@@ -3284,7 +3315,7 @@
       </c>
       <c r="N17" s="3">
         <f>COUNTIFS(E:E, "Yes", F:F, "No")</f>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>69</v>
@@ -3331,7 +3362,7 @@
       </c>
       <c r="N18" s="3">
         <f>COUNTIFS(E:E, "No", F:F, "Yes")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>74</v>
@@ -3378,7 +3409,7 @@
       </c>
       <c r="N19" s="3">
         <f>COUNTIFS(E:E, "No", F:F, "No")</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>79</v>
@@ -4155,8 +4186,8 @@
       <c r="D39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>15</v>
+      <c r="E39" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>21</v>
@@ -4176,7 +4207,7 @@
       </c>
       <c r="K39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
@@ -4418,16 +4449,16 @@
         <v>21</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4492,16 +4523,16 @@
         <v>21</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4818,11 +4849,11 @@
       <c r="C57" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>15</v>
+      <c r="E57" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>21</v>
@@ -4842,7 +4873,7 @@
       </c>
       <c r="K57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1">
@@ -5040,11 +5071,11 @@
       <c r="C63" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>15</v>
+      <c r="E63" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>21</v>
@@ -5064,7 +5095,7 @@
       </c>
       <c r="K63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1">
@@ -5932,7 +5963,7 @@
         <v>48</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>21</v>
@@ -5952,7 +5983,7 @@
       </c>
       <c r="K87" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1">
@@ -6894,7 +6925,7 @@
         <v>48</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>21</v>
@@ -6914,7 +6945,7 @@
       </c>
       <c r="K113" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1">
@@ -7112,11 +7143,11 @@
       <c r="C119" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>15</v>
+      <c r="E119" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>15</v>
@@ -7136,7 +7167,7 @@
       </c>
       <c r="K119" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1">
@@ -7560,7 +7591,7 @@
         <v>48</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>21</v>
@@ -7580,7 +7611,7 @@
       </c>
       <c r="K131" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1">
@@ -7597,7 +7628,7 @@
         <v>48</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>21</v>
@@ -7617,7 +7648,7 @@
       </c>
       <c r="K132" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
@@ -7782,7 +7813,7 @@
         <v>48</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>21</v>
@@ -7802,7 +7833,7 @@
       </c>
       <c r="K137" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1">
@@ -7856,7 +7887,7 @@
         <v>48</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>21</v>
@@ -7876,7 +7907,7 @@
       </c>
       <c r="K139" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
@@ -7963,17 +7994,17 @@
       <c r="C142" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>414</v>
+      <c r="D142" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>414</v>
+        <v>123</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>15</v>
@@ -7987,7 +8018,7 @@
       </c>
       <c r="K142" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1">
@@ -7995,10 +8026,10 @@
         <v>411</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>67</v>
@@ -8032,10 +8063,10 @@
         <v>411</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>67</v>
@@ -8069,14 +8100,14 @@
         <v>411</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="D145" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="E145" s="10" t="s">
         <v>15</v>
       </c>
@@ -8084,7 +8115,7 @@
         <v>15</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>15</v>
@@ -8106,10 +8137,10 @@
         <v>411</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>340</v>
@@ -8143,10 +8174,10 @@
         <v>411</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>401</v>
@@ -8180,16 +8211,16 @@
         <v>411</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>21</v>
@@ -8209,7 +8240,7 @@
       </c>
       <c r="K148" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1">
@@ -8217,10 +8248,10 @@
         <v>411</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>163</v>
@@ -8254,10 +8285,10 @@
         <v>411</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>401</v>
@@ -8291,10 +8322,10 @@
         <v>411</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>340</v>
@@ -8325,13 +8356,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1">
       <c r="A152" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>52</v>
@@ -8362,13 +8393,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>278</v>
@@ -8399,17 +8430,17 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="D154" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="E154" s="10" t="s">
         <v>21</v>
       </c>
@@ -8417,7 +8448,7 @@
         <v>21</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>21</v>
@@ -8436,17 +8467,17 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="E155" s="10" t="s">
         <v>21</v>
       </c>
@@ -8454,7 +8485,7 @@
         <v>21</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H155" s="10" t="s">
         <v>15</v>
@@ -8473,17 +8504,17 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="D156" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="E156" s="10" t="s">
         <v>21</v>
       </c>
@@ -8491,7 +8522,7 @@
         <v>21</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H156" s="10" t="s">
         <v>15</v>
@@ -8510,17 +8541,17 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="D157" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="E157" s="10" t="s">
         <v>21</v>
       </c>
@@ -8528,7 +8559,7 @@
         <v>21</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H157" s="10" t="s">
         <v>15</v>
@@ -8547,13 +8578,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>89</v>
@@ -8584,17 +8615,17 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="D159" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="E159" s="10" t="s">
         <v>21</v>
       </c>
@@ -8602,7 +8633,7 @@
         <v>21</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H159" s="10" t="s">
         <v>15</v>
@@ -8621,17 +8652,17 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="D160" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="E160" s="10" t="s">
         <v>21</v>
       </c>
@@ -8639,7 +8670,7 @@
         <v>21</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H160" s="10" t="s">
         <v>21</v>
@@ -8658,17 +8689,17 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="D161" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="E161" s="10" t="s">
         <v>21</v>
       </c>
@@ -8676,7 +8707,7 @@
         <v>21</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>21</v>
@@ -8695,13 +8726,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>26</v>
@@ -8732,17 +8763,17 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="D163" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="E163" s="10" t="s">
         <v>21</v>
       </c>
@@ -8750,7 +8781,7 @@
         <v>21</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>15</v>
@@ -8769,17 +8800,17 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="D164" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="E164" s="10" t="s">
         <v>21</v>
       </c>
@@ -8787,7 +8818,7 @@
         <v>21</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H164" s="10" t="s">
         <v>15</v>
@@ -8806,17 +8837,17 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="D165" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="E165" s="10" t="s">
         <v>21</v>
       </c>
@@ -8824,7 +8855,7 @@
         <v>21</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H165" s="10" t="s">
         <v>21</v>
@@ -8843,16 +8874,16 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>474</v>
-      </c>
       <c r="D166" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>21</v>
@@ -8861,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H166" s="10" t="s">
         <v>21</v>
@@ -8880,17 +8911,17 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="D167" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E167" s="10" t="s">
         <v>21</v>
       </c>
@@ -8898,7 +8929,7 @@
         <v>21</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H167" s="10" t="s">
         <v>15</v>
@@ -8917,17 +8948,17 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="D168" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="E168" s="10" t="s">
         <v>21</v>
       </c>
@@ -8935,7 +8966,7 @@
         <v>21</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H168" s="10" t="s">
         <v>21</v>
@@ -8954,17 +8985,17 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="D169" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>483</v>
-      </c>
       <c r="E169" s="10" t="s">
         <v>21</v>
       </c>
@@ -8972,7 +9003,7 @@
         <v>21</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H169" s="10" t="s">
         <v>15</v>
@@ -8991,17 +9022,17 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="D170" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="E170" s="10" t="s">
         <v>21</v>
       </c>
@@ -9009,7 +9040,7 @@
         <v>21</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H170" s="10" t="s">
         <v>21</v>
@@ -9028,17 +9059,17 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="D171" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="E171" s="10" t="s">
         <v>21</v>
       </c>
@@ -9046,7 +9077,7 @@
         <v>15</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H171" s="10" t="s">
         <v>15</v>
@@ -9065,17 +9096,17 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="D172" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="E172" s="10" t="s">
         <v>21</v>
       </c>
@@ -9083,7 +9114,7 @@
         <v>21</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H172" s="10" t="s">
         <v>21</v>
@@ -9102,17 +9133,17 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="D173" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="E173" s="10" t="s">
         <v>21</v>
       </c>
@@ -9120,7 +9151,7 @@
         <v>21</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H173" s="10" t="s">
         <v>21</v>
@@ -9139,25 +9170,25 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="D174" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>499</v>
       </c>
       <c r="H174" s="10" t="s">
         <v>15</v>
@@ -9176,16 +9207,16 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>110</v>
+        <v>499</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>21</v>
@@ -9193,8 +9224,8 @@
       <c r="F175" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G175" s="10" t="s">
-        <v>110</v>
+      <c r="G175" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>15</v>
@@ -9213,17 +9244,17 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="E176" s="10" t="s">
         <v>21</v>
       </c>
@@ -9231,7 +9262,7 @@
         <v>21</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H176" s="10" t="s">
         <v>21</v>
@@ -9250,16 +9281,16 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>21</v>
@@ -9287,17 +9318,17 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D178" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="E178" s="10" t="s">
         <v>21</v>
       </c>
@@ -9305,7 +9336,7 @@
         <v>21</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H178" s="10" t="s">
         <v>21</v>
@@ -9324,17 +9355,17 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="E179" s="10" t="s">
         <v>21</v>
       </c>
@@ -9342,7 +9373,7 @@
         <v>21</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H179" s="10" t="s">
         <v>21</v>
@@ -9361,31 +9392,31 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>516</v>
-      </c>
       <c r="E180" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H180" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J180" s="3" t="str">
         <f t="shared" si="4"/>
@@ -9398,25 +9429,25 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="E181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" s="10" t="s">
-        <v>520</v>
       </c>
       <c r="H181" s="10" t="s">
         <v>15</v>
@@ -9435,17 +9466,17 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="E182" s="10" t="s">
         <v>21</v>
       </c>
@@ -9453,7 +9484,7 @@
         <v>21</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H182" s="10" t="s">
         <v>21</v>
@@ -9472,17 +9503,17 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="E183" s="10" t="s">
         <v>21</v>
       </c>
@@ -9490,7 +9521,7 @@
         <v>21</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H183" s="10" t="s">
         <v>21</v>
@@ -9509,17 +9540,17 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="E184" s="10" t="s">
         <v>21</v>
       </c>
@@ -9527,7 +9558,7 @@
         <v>15</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H184" s="10" t="s">
         <v>15</v>
@@ -9546,25 +9577,25 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="E185" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F185" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>533</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>21</v>
@@ -9583,17 +9614,17 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="E186" s="10" t="s">
         <v>21</v>
       </c>
@@ -9601,7 +9632,7 @@
         <v>21</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>15</v>
@@ -9620,31 +9651,31 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="E187" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J187" s="3" t="str">
         <f t="shared" si="4"/>
@@ -9657,17 +9688,17 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="E188" s="10" t="s">
         <v>21</v>
       </c>
@@ -9675,7 +9706,7 @@
         <v>21</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>21</v>
@@ -9694,17 +9725,17 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="E189" s="10" t="s">
         <v>21</v>
       </c>
@@ -9712,7 +9743,7 @@
         <v>21</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>15</v>
@@ -9731,17 +9762,17 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="E190" s="10" t="s">
         <v>21</v>
       </c>
@@ -9749,7 +9780,7 @@
         <v>21</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>21</v>
@@ -9768,17 +9799,17 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>551</v>
-      </c>
       <c r="E191" s="10" t="s">
         <v>21</v>
       </c>
@@ -9786,7 +9817,7 @@
         <v>21</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>21</v>
@@ -9805,17 +9836,17 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>554</v>
-      </c>
       <c r="E192" s="10" t="s">
         <v>21</v>
       </c>
@@ -9823,7 +9854,7 @@
         <v>21</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>15</v>
@@ -9842,17 +9873,17 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>557</v>
-      </c>
       <c r="E193" s="10" t="s">
         <v>21</v>
       </c>
@@ -9860,7 +9891,7 @@
         <v>21</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H193" s="10" t="s">
         <v>15</v>
@@ -9879,17 +9910,17 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="E194" s="10" t="s">
         <v>21</v>
       </c>
@@ -9897,7 +9928,7 @@
         <v>21</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H194" s="10" t="s">
         <v>21</v>
@@ -9916,17 +9947,17 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="E195" s="10" t="s">
         <v>21</v>
       </c>
@@ -9934,7 +9965,7 @@
         <v>21</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H195" s="10" t="s">
         <v>21</v>
@@ -9953,17 +9984,17 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="E196" s="10" t="s">
         <v>21</v>
       </c>
@@ -9971,7 +10002,7 @@
         <v>21</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H196" s="10" t="s">
         <v>21</v>
@@ -9990,17 +10021,17 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="E197" s="10" t="s">
         <v>21</v>
       </c>
@@ -10008,7 +10039,7 @@
         <v>21</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H197" s="10" t="s">
         <v>21</v>
@@ -10027,17 +10058,17 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="E198" s="10" t="s">
         <v>21</v>
       </c>
@@ -10045,7 +10076,7 @@
         <v>21</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H198" s="10" t="s">
         <v>15</v>
@@ -10064,17 +10095,17 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D199" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>575</v>
-      </c>
       <c r="E199" s="10" t="s">
         <v>21</v>
       </c>
@@ -10082,7 +10113,7 @@
         <v>21</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H199" s="10" t="s">
         <v>21</v>
@@ -10101,17 +10132,17 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="E200" s="10" t="s">
         <v>21</v>
       </c>
@@ -10119,7 +10150,7 @@
         <v>21</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H200" s="10" t="s">
         <v>15</v>
@@ -10138,17 +10169,17 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>581</v>
-      </c>
       <c r="E201" s="10" t="s">
         <v>21</v>
       </c>
@@ -10156,7 +10187,7 @@
         <v>21</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H201" s="10" t="s">
         <v>15</v>
@@ -10175,17 +10206,17 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="E202" s="10" t="s">
         <v>21</v>
       </c>
@@ -10193,7 +10224,7 @@
         <v>21</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H202" s="10" t="s">
         <v>15</v>
@@ -10212,17 +10243,17 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="E203" s="10" t="s">
         <v>21</v>
       </c>
@@ -10230,7 +10261,7 @@
         <v>21</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H203" s="10" t="s">
         <v>15</v>
@@ -10249,17 +10280,17 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>590</v>
-      </c>
       <c r="E204" s="10" t="s">
         <v>21</v>
       </c>
@@ -10267,7 +10298,7 @@
         <v>21</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H204" s="10" t="s">
         <v>21</v>
@@ -10286,17 +10317,17 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="E205" s="10" t="s">
         <v>21</v>
       </c>
@@ -10304,7 +10335,7 @@
         <v>21</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H205" s="10" t="s">
         <v>21</v>
@@ -10323,17 +10354,17 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="E206" s="10" t="s">
         <v>21</v>
       </c>
@@ -10341,7 +10372,7 @@
         <v>21</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H206" s="10" t="s">
         <v>15</v>
@@ -10360,17 +10391,17 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="E207" s="10" t="s">
         <v>21</v>
       </c>
@@ -10378,7 +10409,7 @@
         <v>21</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H207" s="10" t="s">
         <v>21</v>
@@ -10397,17 +10428,17 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D208" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>602</v>
-      </c>
       <c r="E208" s="10" t="s">
         <v>21</v>
       </c>
@@ -10415,7 +10446,7 @@
         <v>15</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H208" s="10" t="s">
         <v>15</v>
@@ -10434,17 +10465,17 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>605</v>
-      </c>
       <c r="E209" s="10" t="s">
         <v>21</v>
       </c>
@@ -10452,7 +10483,7 @@
         <v>15</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H209" s="10" t="s">
         <v>15</v>
@@ -10471,17 +10502,17 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="E210" s="10" t="s">
         <v>21</v>
       </c>
@@ -10489,7 +10520,7 @@
         <v>21</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H210" s="10" t="s">
         <v>21</v>
@@ -10508,17 +10539,17 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="E211" s="10" t="s">
         <v>21</v>
       </c>
@@ -10526,7 +10557,7 @@
         <v>21</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H211" s="10" t="s">
         <v>21</v>
@@ -10545,25 +10576,25 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="E212" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G212" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F212" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>615</v>
       </c>
       <c r="H212" s="10" t="s">
         <v>21</v>
@@ -10582,17 +10613,17 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>618</v>
-      </c>
       <c r="E213" s="10" t="s">
         <v>21</v>
       </c>
@@ -10600,7 +10631,7 @@
         <v>21</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H213" s="10" t="s">
         <v>21</v>
@@ -10619,17 +10650,17 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="E214" s="10" t="s">
         <v>21</v>
       </c>
@@ -10637,7 +10668,7 @@
         <v>21</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H214" s="10" t="s">
         <v>15</v>
@@ -10656,13 +10687,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>56</v>
@@ -10693,17 +10724,17 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>626</v>
-      </c>
       <c r="E216" s="10" t="s">
         <v>21</v>
       </c>
@@ -10711,7 +10742,7 @@
         <v>21</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H216" s="10" t="s">
         <v>15</v>
@@ -10730,17 +10761,17 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="E217" s="10" t="s">
         <v>21</v>
       </c>
@@ -10748,7 +10779,7 @@
         <v>21</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H217" s="10" t="s">
         <v>15</v>
@@ -10767,17 +10798,17 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>632</v>
-      </c>
       <c r="E218" s="10" t="s">
         <v>21</v>
       </c>
@@ -10785,7 +10816,7 @@
         <v>21</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H218" s="10" t="s">
         <v>15</v>
@@ -10804,13 +10835,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>348</v>
@@ -10841,31 +10872,31 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>637</v>
-      </c>
       <c r="E220" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H220" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J220" s="3" t="str">
         <f t="shared" si="6"/>
@@ -10878,25 +10909,25 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="E221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G221" s="10" t="s">
         <v>639</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E221" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F221" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" s="10" t="s">
-        <v>641</v>
       </c>
       <c r="H221" s="10" t="s">
         <v>15</v>
@@ -10915,25 +10946,25 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="E222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G222" s="10" t="s">
         <v>643</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E222" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F222" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" s="10" t="s">
-        <v>645</v>
       </c>
       <c r="H222" s="10" t="s">
         <v>15</v>
@@ -10952,17 +10983,17 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C223" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="E223" s="10" t="s">
         <v>21</v>
       </c>
@@ -10970,7 +11001,7 @@
         <v>21</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H223" s="10" t="s">
         <v>21</v>
@@ -10989,17 +11020,17 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>651</v>
-      </c>
       <c r="E224" s="10" t="s">
         <v>21</v>
       </c>
@@ -11007,7 +11038,7 @@
         <v>21</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H224" s="10" t="s">
         <v>15</v>
@@ -11026,25 +11057,25 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="E225" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" s="10" t="s">
         <v>653</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E225" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F225" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G225" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="H225" s="10" t="s">
         <v>15</v>
@@ -11063,25 +11094,25 @@
     </row>
     <row r="226" spans="1:11" ht="12.75" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="E226" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" s="10" t="s">
         <v>657</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E226" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F226" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G226" s="10" t="s">
-        <v>659</v>
       </c>
       <c r="H226" s="10" t="s">
         <v>15</v>
@@ -11100,17 +11131,17 @@
     </row>
     <row r="227" spans="1:11" ht="12.75" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>662</v>
-      </c>
       <c r="E227" s="10" t="s">
         <v>21</v>
       </c>
@@ -11118,7 +11149,7 @@
         <v>21</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H227" s="10" t="s">
         <v>21</v>
@@ -11137,31 +11168,31 @@
     </row>
     <row r="228" spans="1:11" ht="12.75" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D228" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="E228" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H228" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I228" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J228" s="3" t="str">
         <f t="shared" si="6"/>
@@ -11174,17 +11205,17 @@
     </row>
     <row r="229" spans="1:11" ht="12.75" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>668</v>
-      </c>
       <c r="E229" s="10" t="s">
         <v>21</v>
       </c>
@@ -11192,7 +11223,7 @@
         <v>21</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H229" s="10" t="s">
         <v>21</v>
@@ -11211,17 +11242,17 @@
     </row>
     <row r="230" spans="1:11" ht="12.75" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B230" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>671</v>
-      </c>
       <c r="E230" s="10" t="s">
         <v>21</v>
       </c>
@@ -11229,7 +11260,7 @@
         <v>21</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H230" s="10" t="s">
         <v>15</v>
@@ -11248,17 +11279,17 @@
     </row>
     <row r="231" spans="1:11" ht="12.75" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>674</v>
-      </c>
       <c r="E231" s="10" t="s">
         <v>21</v>
       </c>
@@ -11266,7 +11297,7 @@
         <v>21</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H231" s="10" t="s">
         <v>15</v>
@@ -11285,17 +11316,17 @@
     </row>
     <row r="232" spans="1:11" ht="12.75" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="E232" s="10" t="s">
         <v>21</v>
       </c>
@@ -11303,7 +11334,7 @@
         <v>15</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H232" s="10" t="s">
         <v>15</v>
@@ -11322,17 +11353,17 @@
     </row>
     <row r="233" spans="1:11" ht="12.75" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="E233" s="10" t="s">
         <v>21</v>
       </c>
@@ -11340,7 +11371,7 @@
         <v>21</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H233" s="10" t="s">
         <v>15</v>
@@ -11359,17 +11390,17 @@
     </row>
     <row r="234" spans="1:11" ht="12.75" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B234" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>683</v>
-      </c>
       <c r="E234" s="10" t="s">
         <v>21</v>
       </c>
@@ -11377,7 +11408,7 @@
         <v>21</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H234" s="10" t="s">
         <v>21</v>
@@ -11396,25 +11427,25 @@
     </row>
     <row r="235" spans="1:11" ht="12.75" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="E235" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" s="10" t="s">
         <v>685</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G235" s="10" t="s">
-        <v>687</v>
       </c>
       <c r="H235" s="10" t="s">
         <v>21</v>
@@ -11433,17 +11464,17 @@
     </row>
     <row r="236" spans="1:11" ht="12.75" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>690</v>
-      </c>
       <c r="E236" s="10" t="s">
         <v>21</v>
       </c>
@@ -11451,7 +11482,7 @@
         <v>21</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H236" s="10" t="s">
         <v>15</v>
@@ -11470,17 +11501,17 @@
     </row>
     <row r="237" spans="1:11" ht="12.75" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="E237" s="10" t="s">
         <v>21</v>
       </c>
@@ -11488,7 +11519,7 @@
         <v>21</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H237" s="10" t="s">
         <v>21</v>
@@ -11507,17 +11538,17 @@
     </row>
     <row r="238" spans="1:11" ht="12.75" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="E238" s="10" t="s">
         <v>21</v>
       </c>
@@ -11525,7 +11556,7 @@
         <v>21</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H238" s="10" t="s">
         <v>21</v>
@@ -11544,17 +11575,17 @@
     </row>
     <row r="239" spans="1:11" ht="12.75" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="E239" s="10" t="s">
         <v>21</v>
       </c>
@@ -11562,7 +11593,7 @@
         <v>21</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H239" s="10" t="s">
         <v>15</v>
@@ -11581,25 +11612,25 @@
     </row>
     <row r="240" spans="1:11" ht="12.75" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="E240" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" s="10" t="s">
         <v>701</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E240" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F240" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G240" s="10" t="s">
-        <v>703</v>
       </c>
       <c r="H240" s="10" t="s">
         <v>15</v>
@@ -11618,25 +11649,25 @@
     </row>
     <row r="241" spans="1:11" ht="12.75" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G241" s="10" t="s">
         <v>704</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F241" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G241" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="H241" s="10" t="s">
         <v>15</v>
@@ -11655,16 +11686,16 @@
     </row>
     <row r="242" spans="1:11" ht="12.75" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E242" s="10" t="s">
         <v>21</v>
@@ -11673,7 +11704,7 @@
         <v>21</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H242" s="10" t="s">
         <v>15</v>
@@ -11692,16 +11723,16 @@
     </row>
     <row r="243" spans="1:11" ht="12.75" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E243" s="10" t="s">
         <v>21</v>
@@ -11710,7 +11741,7 @@
         <v>21</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H243" s="10" t="s">
         <v>21</v>
@@ -11729,16 +11760,16 @@
     </row>
     <row r="244" spans="1:11" ht="12.75" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E244" s="10" t="s">
         <v>21</v>
@@ -11747,7 +11778,7 @@
         <v>21</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H244" s="10" t="s">
         <v>15</v>
@@ -11766,16 +11797,16 @@
     </row>
     <row r="245" spans="1:11" ht="12.75" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>21</v>
@@ -11784,7 +11815,7 @@
         <v>15</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H245" s="10" t="s">
         <v>15</v>
@@ -11803,16 +11834,16 @@
     </row>
     <row r="246" spans="1:11" ht="12.75" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E246" s="10" t="s">
         <v>21</v>
@@ -11821,7 +11852,7 @@
         <v>21</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H246" s="10" t="s">
         <v>21</v>
@@ -11840,16 +11871,16 @@
     </row>
     <row r="247" spans="1:11" ht="12.75" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>21</v>
@@ -11858,7 +11889,7 @@
         <v>21</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H247" s="10" t="s">
         <v>15</v>
@@ -11877,16 +11908,16 @@
     </row>
     <row r="248" spans="1:11" ht="12.75" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E248" s="10" t="s">
         <v>21</v>
@@ -11895,7 +11926,7 @@
         <v>21</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H248" s="10" t="s">
         <v>15</v>
@@ -15103,78 +15134,78 @@
     <hyperlink ref="C176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
     <hyperlink ref="C177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="C178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C183" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C184" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C185" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C186" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C187" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C188" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C189" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C191" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C192" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C193" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C194" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C195" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C196" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C197" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C198" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C199" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C200" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C201" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C202" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C203" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C204" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C209" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C210" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C211" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C212" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C213" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C214" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C215" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C216" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C217" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C218" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C219" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C220" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C221" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C222" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C223" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C224" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C225" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C226" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C227" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C228" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="D228" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C229" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C230" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C231" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C232" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C233" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C234" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C235" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C236" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C237" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C238" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C239" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C240" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C241" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C242" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C243" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C244" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C245" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C246" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C247" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C248" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D178" r:id="rId248" xr:uid="{39B5AE6B-D211-47B6-BAEB-984B52446C89}"/>
+    <hyperlink ref="D228" r:id="rId249" xr:uid="{5E2E1CA3-C60A-4A2B-B744-DB2D03C285D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId250"/>
